--- a/Text/Eickelpasch_Lisa_text.xlsx
+++ b/Text/Eickelpasch_Lisa_text.xlsx
@@ -46,13 +46,13 @@
     <t>Pro Bild / for each image</t>
   </si>
   <si>
-    <t>Das Konzept „LAMELLA“ adaptiert das Set- und Produktionsdesign des Filmes "2001: A Space Odyssey" innerhalb eines Raumschiffes mit lamellen- und knochenartiger Struktur. HAL ist diese Struktur: ein Netzwerk, dass die Astronauten in seinem Inneren hält. HAL wurde mit futuristischem und organischem Design gestaltet. Die Motive erinnern an die Komplexität des Films, während sie gleichzeitig eine neue Geschichte erzählen und den Fokus stärker auf den Erzählstrang um HAL und die Kontrolle der künstlichen Intelligenz über die Menschen legt.</t>
+    <t>Das Konzept „LAMELLA“ adaptiert das Setdesign des Filmes "2001: A Space Odyssey" innerhalb eines Raumschiffes mit lamellen- und knochenartiger Struktur. HAL ist diese Struktur: ein Netzwerk, dass die Astronauten in seinem Inneren hält. Der Fokus wird auf den Erzählstrang um HAL und die Kontrolle der künstlichen Intelligenz über die Menschen gelegt.</t>
   </si>
   <si>
     <t>Szenen</t>
   </si>
   <si>
-    <t>Lamella Raumschiff (Serie 1/4)</t>
+    <t>Lamella_Spaceship01</t>
   </si>
   <si>
     <t>Lisa Eickelpasch</t>
@@ -61,145 +61,145 @@
     <t>give me the left spaceship in front of a black backdrop</t>
   </si>
   <si>
-    <t>Lamella Raumschiff (Serie 2/4)</t>
+    <t>Lamella_Spaceship02</t>
+  </si>
+  <si>
+    <t>show me an image of the walls of the spaceship becoming transparent, revealing a labyrinthine network of corridors and compartments. The interior, much like the exterior, has an organic, skeletal quality to it. The hallways curve and fork like the dendrites of a neuron, leading to various functional areas within the ship.</t>
+  </si>
+  <si>
+    <t>Lamella_Spaceship03</t>
   </si>
   <si>
     <t>show me a cutaway view of this spaceship; make it look more organic and give it more of that boney/lamella structure</t>
   </si>
   <si>
-    <t>Lamella Raumschiff (Serie 3/4)</t>
-  </si>
-  <si>
-    <t>Lamella Raumschiff (Serie 4/4)</t>
-  </si>
-  <si>
-    <t>show me an image of the walls of the spaceship becoming transparent, revealing a labyrinthine network of corridors and compartments. The interior, much like the exterior, has an organic, skeletal quality to it. The hallways curve and fork like the dendrites of a neuron, leading to various functional areas within the ship.</t>
-  </si>
-  <si>
-    <t>Lamella Lounge Area (1/2)</t>
+    <t>Lamella_Spaceship04</t>
+  </si>
+  <si>
+    <t>Lamella_Lounge-Area01</t>
   </si>
   <si>
     <t>show me this image in the style of the created spaceship; Image to Image</t>
   </si>
   <si>
-    <t>Lamella Lounge Area (2/2)</t>
+    <t>Lamella_Lounge-Area02</t>
   </si>
   <si>
     <t>show me the inside of the created spaceship</t>
   </si>
   <si>
-    <t>Lamella Conversation Area</t>
+    <t>Lamella_Conversation-Area</t>
   </si>
   <si>
     <t>reimagine this scene in the same style as other images in this conversation; Image to Image</t>
   </si>
   <si>
-    <t>Lamella Corridor (1/4)</t>
+    <t>Lamella_Corridor01</t>
   </si>
   <si>
     <t>let me look through a corridor of the spaceship</t>
   </si>
   <si>
-    <t>Lamella Corridor (2/4)</t>
-  </si>
-  <si>
-    <t>Lamella Corridor (3/4)</t>
-  </si>
-  <si>
-    <t>Lamella Corridor (4/4)</t>
-  </si>
-  <si>
-    <t>Lamella Excursion Vessel</t>
-  </si>
-  <si>
-    <t>now generate a smaller vessel in wich astronaut can explore nearby planets</t>
-  </si>
-  <si>
-    <t>Lamella Engine Compartment (1/4)</t>
+    <t>Lamella_Corridor02</t>
+  </si>
+  <si>
+    <t>Lamella_Corridor03</t>
+  </si>
+  <si>
+    <t>Lamella_Corridor04</t>
+  </si>
+  <si>
+    <t>Lamella_Excursion-Vessel</t>
+  </si>
+  <si>
+    <t>now generate a smaller vessel in which astronaut can explore nearby planets</t>
+  </si>
+  <si>
+    <t>Lamella_Engine-Compartment01</t>
+  </si>
+  <si>
+    <t>show me the engine rooms of the spaceship</t>
+  </si>
+  <si>
+    <t>Lamella_Engine-Compartment02</t>
+  </si>
+  <si>
+    <t>Lamella_Engine-Compartment03</t>
   </si>
   <si>
     <t>show me the engine compartment of this spaceship</t>
   </si>
   <si>
-    <t>Lamella Engine Compartment (2/4)</t>
-  </si>
-  <si>
-    <t>Lamella Engine Compartment (3/4)</t>
-  </si>
-  <si>
-    <t>show me the engine rooms of the spaceship</t>
-  </si>
-  <si>
-    <t>Lamella Engine Compartment (4/4)</t>
-  </si>
-  <si>
-    <t>Lamella Food Tray</t>
+    <t>Lamella_Engine-Compartment04</t>
+  </si>
+  <si>
+    <t>Objekte</t>
+  </si>
+  <si>
+    <t>Lamella_Food-Tray</t>
   </si>
   <si>
     <t>show me a food tray with lamella structure</t>
   </si>
   <si>
-    <t>Lamella Spaceships Center (1/2)</t>
+    <t>Lamella_Spaceships-Center01</t>
   </si>
   <si>
     <t>show me the center of this spaceship</t>
   </si>
   <si>
-    <t>Lamella Spaceships Center (2/2)</t>
-  </si>
-  <si>
-    <t>Lamella Spaceships Server (1/4)</t>
+    <t>Lamella_Spaceships-Center02</t>
+  </si>
+  <si>
+    <t>place a big Server into the Spaceship that we created in this conversation</t>
+  </si>
+  <si>
+    <t>Lamella_Spaceships-Server02</t>
+  </si>
+  <si>
+    <t>Lamella_Spaceships-Server03</t>
+  </si>
+  <si>
+    <t>Lamella_Spaceships-Server04</t>
   </si>
   <si>
     <t>show me more versions of a server system like this in the spaceship</t>
   </si>
   <si>
-    <t>Lamella Spaceships Server (2/4)</t>
-  </si>
-  <si>
-    <t>place a big Server into the Spaceship that we created in this conversation</t>
-  </si>
-  <si>
-    <t>Lamella Spaceships Server (3/4)</t>
-  </si>
-  <si>
-    <t>Lamella Spaceships Server (4/4)</t>
-  </si>
-  <si>
-    <t>Lamella Community Space</t>
+    <t>Lamella_Community-Space</t>
   </si>
   <si>
     <t>show me sleeping capsules inside the created spaceship</t>
   </si>
   <si>
-    <t>Lamella Sleeping Capsule</t>
+    <t>Lamella-Sleeping-Capsule</t>
   </si>
   <si>
     <t>a bed that is made of that boney/ lamella structure inside a capsule</t>
   </si>
   <si>
-    <t>Lamella Spaceships Control Center (1/3)</t>
-  </si>
-  <si>
-    <t>Lamella Spaceships Control Center (2/3)</t>
+    <t>Lamella_Spaceships-Control-Center01</t>
+  </si>
+  <si>
+    <t>place a big Server into the Spaceship that we created in this conversation; give me more variations of this</t>
+  </si>
+  <si>
+    <t>Lamella_Spaceships-Control-Center02</t>
   </si>
   <si>
     <t>show me the telephone central of this spaceship with lamella structure</t>
   </si>
   <si>
-    <t>Lamella Spaceships Control Center (3/3)</t>
-  </si>
-  <si>
-    <t>place a big Server into the Spaceship that we created in this conversation; give me more variations of this</t>
-  </si>
-  <si>
-    <t>Lamella Vessel Compartment</t>
+    <t>Lamella_Spaceships-Control-Center03</t>
+  </si>
+  <si>
+    <t>Lamella_Vessel_Landing-Area</t>
   </si>
   <si>
     <t>show me this image in the style of the created spaceship (Image to Image)</t>
   </si>
   <si>
-    <t xml:space="preserve">Lamella Space Vessel </t>
+    <t xml:space="preserve">Lamella_Space_Vessel </t>
   </si>
   <si>
     <t>show me a spaceship that could contain this cockpit; (Image to Image)</t>
@@ -210,7 +210,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +234,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -260,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -388,6 +394,13 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -433,10 +446,10 @@
     <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -781,7 +794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="107.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="158.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -845,7 +858,7 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" s="8"/>
     </row>
@@ -857,11 +870,11 @@
         <v>11</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -1062,14 +1075,14 @@
         <v>59</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -1081,11 +1094,11 @@
         <v>11</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" s="15"/>
     </row>
@@ -1097,7 +1110,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="9" t="s">
@@ -1113,7 +1126,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15" t="s">
@@ -1133,7 +1146,7 @@
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="15" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="F23" s="15"/>
     </row>
@@ -1145,11 +1158,11 @@
         <v>11</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F24" s="15"/>
     </row>
@@ -1161,11 +1174,11 @@
         <v>11</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="F25" s="15"/>
     </row>
@@ -1190,7 +1203,7 @@
         <v>65</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>52</v>
@@ -1213,7 +1226,7 @@
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="15" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F28" s="15"/>
     </row>
@@ -1225,11 +1238,11 @@
         <v>11</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F29" s="15"/>
     </row>
@@ -1241,11 +1254,11 @@
         <v>11</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="15" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F30" s="15"/>
     </row>
